--- a/environmental_data/raw_data/siteGPSCoordinates.xlsx
+++ b/environmental_data/raw_data/siteGPSCoordinates.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allysondemerlis/Documents/GitHub/Ch3_reciprocaltransplant/environmental_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch3_reciprocaltransplant/environmental_data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{03243133-70B6-0846-A963-AFA686D1855E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -112,9 +112,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -152,7 +152,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -258,7 +258,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,7 +400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,7 +411,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -477,5 +477,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>